--- a/datasets/replace_concat.xlsx
+++ b/datasets/replace_concat.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="541">
   <si>
     <t>before_replacement</t>
   </si>
@@ -76,6 +76,12 @@
     <t>좋아요</t>
   </si>
   <si>
+    <t>💙</t>
+  </si>
+  <si>
+    <t>하트트</t>
+  </si>
+  <si>
     <t>♥</t>
   </si>
   <si>
@@ -97,9 +103,18 @@
     <t>💪🏽</t>
   </si>
   <si>
+    <t>👊</t>
+  </si>
+  <si>
     <t>💪</t>
   </si>
   <si>
+    <t>🥱</t>
+  </si>
+  <si>
+    <t>지루해요</t>
+  </si>
+  <si>
     <t>🙆</t>
   </si>
   <si>
@@ -109,6 +124,30 @@
     <t>😄</t>
   </si>
   <si>
+    <t>👏</t>
+  </si>
+  <si>
+    <t>짝짝짝</t>
+  </si>
+  <si>
+    <t>😭</t>
+  </si>
+  <si>
+    <t>아쉬워요</t>
+  </si>
+  <si>
+    <t>😥</t>
+  </si>
+  <si>
+    <t>🥲</t>
+  </si>
+  <si>
+    <t>😢</t>
+  </si>
+  <si>
+    <t>🤣</t>
+  </si>
+  <si>
     <t>👍🏻</t>
   </si>
   <si>
@@ -118,6 +157,24 @@
     <t>👍</t>
   </si>
   <si>
+    <t>😆</t>
+  </si>
+  <si>
+    <t>🙂</t>
+  </si>
+  <si>
+    <t>웃음</t>
+  </si>
+  <si>
+    <t>🤗</t>
+  </si>
+  <si>
+    <t>행복</t>
+  </si>
+  <si>
+    <t>😊</t>
+  </si>
+  <si>
     <t>😀</t>
   </si>
   <si>
@@ -140,6 +197,9 @@
   </si>
   <si>
     <t>런데이</t>
+  </si>
+  <si>
+    <t>아이코젠</t>
   </si>
   <si>
     <t>라이크핏</t>
@@ -1611,14 +1671,14 @@
       <name val="Gulim"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1679,10 +1739,10 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2068,7 +2128,7 @@
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2080,579 +2140,579 @@
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="18.0" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" ht="18.0" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="20" ht="18.0" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
+      <c r="A20" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="18.0" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
+      <c r="A21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="18.0" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
+      <c r="A22" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
+      <c r="A23" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="18.0" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
+      <c r="A24" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" ht="18.0" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
+      <c r="A25" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="18.0" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="18.0" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="18.0" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" ht="18.0" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
+      <c r="A29" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="18.0" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
+      <c r="A30" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="18.0" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
+      <c r="A31" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="18.0" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="33" ht="18.0" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>41</v>
+      <c r="A33" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="18.0" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
+      <c r="A34" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="18.0" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>43</v>
+      <c r="A35" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="18.0" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>44</v>
+      <c r="A36" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="18.0" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>45</v>
+      <c r="A37" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="18.0" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>46</v>
+      <c r="A38" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" ht="18.0" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>47</v>
+      <c r="A39" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="40" ht="18.0" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" ht="18.0" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" ht="18.0" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="B41" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="18.0" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>50</v>
+      <c r="A42" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="18.0" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="8"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="44" ht="18.0" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="8"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="45" ht="18.0" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="8"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="46" ht="18.0" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" ht="18.0" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="48" ht="18.0" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="18.0" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" ht="18.0" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" ht="18.0" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" ht="18.0" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" ht="18.0" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="18.0" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" ht="18.0" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" ht="18.0" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" ht="18.0" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="18.0" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" ht="18.0" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" ht="18.0" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" ht="18.0" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="18.0" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>70</v>
+      <c r="A62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="18.0" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>70</v>
+      <c r="A63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" ht="18.0" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>70</v>
+      <c r="A64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" ht="18.0" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>70</v>
+      <c r="A65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="66" ht="18.0" customHeight="1">
-      <c r="A66" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="67" ht="18.0" customHeight="1">
-      <c r="A67" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>70</v>
+      <c r="A67" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="68" ht="18.0" customHeight="1">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" ht="18.0" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" ht="18.0" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" ht="18.0" customHeight="1">
+      <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" ht="18.0" customHeight="1">
-      <c r="A69" s="7" t="s">
+      <c r="B71" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" ht="18.0" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" ht="18.0" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" ht="18.0" customHeight="1">
+      <c r="A74" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" ht="18.0" customHeight="1">
-      <c r="A70" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" ht="18.0" customHeight="1">
-      <c r="A71" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" ht="18.0" customHeight="1">
-      <c r="A72" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" ht="18.0" customHeight="1">
-      <c r="A73" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" ht="18.0" customHeight="1">
-      <c r="A74" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>86</v>
+      <c r="B74" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="75" ht="18.0" customHeight="1">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" ht="18.0" customHeight="1">
+      <c r="A76" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="76" ht="18.0" customHeight="1">
-      <c r="A76" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>88</v>
+      <c r="B76" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77" ht="18.0" customHeight="1">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" ht="18.0" customHeight="1">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79" ht="18.0" customHeight="1">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" ht="18.0" customHeight="1">
+      <c r="A80" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" ht="18.0" customHeight="1">
-      <c r="A80" s="10" t="s">
+      <c r="B80" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" ht="18.0" customHeight="1">
+      <c r="A81" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" ht="18.0" customHeight="1">
-      <c r="A81" s="10" t="s">
+    <row r="82" ht="18.0" customHeight="1">
+      <c r="A82" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" ht="18.0" customHeight="1">
-      <c r="A82" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>82</v>
+      <c r="B82" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="83" ht="18.0" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" ht="18.0" customHeight="1">
       <c r="A84" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" ht="18.0" customHeight="1">
+      <c r="A85" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B85" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" ht="18.0" customHeight="1">
+      <c r="A86" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" ht="18.0" customHeight="1">
-      <c r="A85" s="10" t="s">
+      <c r="B86" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" ht="18.0" customHeight="1">
+      <c r="A87" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B87" s="7" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="86" ht="18.0" customHeight="1">
-      <c r="A86" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" ht="18.0" customHeight="1">
-      <c r="A87" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="88" ht="18.0" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>104</v>
@@ -2660,26 +2720,26 @@
     </row>
     <row r="89" ht="18.0" customHeight="1">
       <c r="A89" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="90" ht="18.0" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" ht="18.0" customHeight="1">
       <c r="A91" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="92" ht="18.0" customHeight="1">
@@ -2687,55 +2747,55 @@
         <v>109</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" ht="18.0" customHeight="1">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="94" ht="18.0" customHeight="1">
-      <c r="A94" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>104</v>
+      <c r="A94" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="95" ht="18.0" customHeight="1">
-      <c r="A95" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>113</v>
+      <c r="A95" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="96" ht="18.0" customHeight="1">
-      <c r="A96" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>82</v>
+      <c r="A96" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="97" ht="18.0" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>116</v>
+      <c r="A97" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="98" ht="18.0" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" ht="18.0" customHeight="1">
@@ -2743,23 +2803,23 @@
         <v>119</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" ht="18.0" customHeight="1">
-      <c r="A100" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>118</v>
+      <c r="A100" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="101" ht="18.0" customHeight="1">
       <c r="A101" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" ht="18.0" customHeight="1">
@@ -2783,15 +2843,15 @@
         <v>126</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" ht="18.0" customHeight="1">
       <c r="A105" s="10" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="18.0" customHeight="1">
@@ -2799,7 +2859,7 @@
         <v>128</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" ht="18.0" customHeight="1">
@@ -2807,228 +2867,228 @@
         <v>129</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" ht="18.0" customHeight="1">
+      <c r="A108" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="108" ht="18.0" customHeight="1">
-      <c r="A108" s="10" t="s">
+      <c r="B108" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" ht="18.0" customHeight="1">
+      <c r="A109" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" ht="18.0" customHeight="1">
+      <c r="A110" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="109" ht="18.0" customHeight="1">
-      <c r="A109" s="10" t="s">
+      <c r="B110" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" ht="18.0" customHeight="1">
-      <c r="A110" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="111" ht="18.0" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" ht="18.0" customHeight="1">
       <c r="A112" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" ht="18.0" customHeight="1">
+      <c r="A113" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B113" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="113" ht="18.0" customHeight="1">
-      <c r="A113" s="10" t="s">
+    <row r="114" ht="18.0" customHeight="1">
+      <c r="A114" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" ht="18.0" customHeight="1">
-      <c r="A114" s="10" t="s">
+      <c r="B114" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" ht="18.0" customHeight="1">
+      <c r="A115" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B115" s="7" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="115" ht="18.0" customHeight="1">
-      <c r="A115" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="116" ht="18.0" customHeight="1">
       <c r="A116" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" ht="18.0" customHeight="1">
       <c r="A117" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" ht="18.0" customHeight="1">
       <c r="A118" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" ht="18.0" customHeight="1">
       <c r="A119" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" ht="18.0" customHeight="1">
       <c r="A120" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" ht="18.0" customHeight="1">
       <c r="A121" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" ht="18.0" customHeight="1">
       <c r="A122" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" ht="18.0" customHeight="1">
       <c r="A123" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" ht="18.0" customHeight="1">
       <c r="A124" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" ht="18.0" customHeight="1">
       <c r="A125" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" ht="18.0" customHeight="1">
+      <c r="A126" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" ht="18.0" customHeight="1">
+      <c r="A127" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" ht="18.0" customHeight="1">
-      <c r="A126" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" ht="18.0" customHeight="1">
-      <c r="A127" s="10" t="s">
+      <c r="B127" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="128" ht="18.0" customHeight="1">
       <c r="A128" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" ht="18.0" customHeight="1">
       <c r="A129" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" ht="18.0" customHeight="1">
       <c r="A130" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" ht="18.0" customHeight="1">
       <c r="A131" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" ht="18.0" customHeight="1">
+      <c r="A132" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132" ht="18.0" customHeight="1">
-      <c r="A132" s="7" t="s">
+    <row r="133" ht="18.0" customHeight="1">
+      <c r="A133" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B133" s="10" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="133" ht="18.0" customHeight="1">
-      <c r="A133" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="134" ht="18.0" customHeight="1">
       <c r="A134" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" ht="18.0" customHeight="1">
       <c r="A135" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>168</v>
@@ -3036,199 +3096,199 @@
     </row>
     <row r="136" ht="18.0" customHeight="1">
       <c r="A136" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" ht="18.0" customHeight="1">
+      <c r="A137" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B137" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" ht="18.0" customHeight="1">
+      <c r="A138" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="137" ht="18.0" customHeight="1">
-      <c r="A137" s="7" t="s">
+      <c r="B138" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" ht="18.0" customHeight="1">
+      <c r="A139" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" ht="18.0" customHeight="1">
-      <c r="A138" s="7" t="s">
+      <c r="B139" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" ht="18.0" customHeight="1">
-      <c r="A139" s="7" t="s">
+    </row>
+    <row r="140" ht="18.0" customHeight="1">
+      <c r="A140" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140" ht="18.0" customHeight="1">
-      <c r="A140" s="7" t="s">
+      <c r="B140" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" ht="18.0" customHeight="1">
+      <c r="A141" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" ht="18.0" customHeight="1">
+      <c r="A142" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B142" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" ht="18.0" customHeight="1">
-      <c r="A141" s="7" t="s">
+    <row r="143" ht="18.0" customHeight="1">
+      <c r="A143" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="142" ht="18.0" customHeight="1">
-      <c r="A142" s="7" t="s">
+      <c r="B143" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" ht="18.0" customHeight="1">
+      <c r="A144" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B144" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="143" ht="18.0" customHeight="1">
-      <c r="A143" s="7" t="s">
+    <row r="145" ht="18.0" customHeight="1">
+      <c r="A145" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B145" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" ht="18.0" customHeight="1">
-      <c r="A144" s="7" t="s">
+    <row r="146" ht="18.0" customHeight="1">
+      <c r="A146" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="145" ht="18.0" customHeight="1">
-      <c r="A145" s="7" t="s">
+      <c r="B146" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" ht="18.0" customHeight="1">
-      <c r="A146" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="147" ht="18.0" customHeight="1">
       <c r="A147" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" ht="18.0" customHeight="1">
       <c r="A148" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" ht="18.0" customHeight="1">
+      <c r="A149" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B149" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" ht="18.0" customHeight="1">
+      <c r="A150" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="149" ht="18.0" customHeight="1">
-      <c r="A149" s="7" t="s">
+      <c r="B150" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" ht="18.0" customHeight="1">
+      <c r="A151" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B151" s="10" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="150" ht="18.0" customHeight="1">
-      <c r="A150" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" ht="18.0" customHeight="1">
-      <c r="A151" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="152" ht="18.0" customHeight="1">
       <c r="A152" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" ht="18.0" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" ht="18.0" customHeight="1">
       <c r="A154" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" ht="18.0" customHeight="1">
       <c r="A155" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" ht="18.0" customHeight="1">
       <c r="A156" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" ht="18.0" customHeight="1">
       <c r="A157" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" ht="18.0" customHeight="1">
       <c r="A158" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" ht="18.0" customHeight="1">
       <c r="A159" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" ht="18.0" customHeight="1">
       <c r="A160" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>207</v>
@@ -3236,26 +3296,26 @@
     </row>
     <row r="161" ht="18.0" customHeight="1">
       <c r="A161" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" ht="18.0" customHeight="1">
       <c r="A162" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" ht="18.0" customHeight="1">
       <c r="A163" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="164" ht="18.0" customHeight="1">
@@ -3271,7 +3331,7 @@
         <v>215</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" ht="18.0" customHeight="1">
@@ -3279,20 +3339,20 @@
         <v>216</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" ht="18.0" customHeight="1">
       <c r="A167" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" ht="18.0" customHeight="1">
       <c r="A168" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>102</v>
@@ -3300,31 +3360,31 @@
     </row>
     <row r="169" ht="18.0" customHeight="1">
       <c r="A169" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" ht="18.0" customHeight="1">
       <c r="A170" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171" ht="18.0" customHeight="1">
       <c r="A171" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" ht="18.0" customHeight="1">
       <c r="A172" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>224</v>
@@ -3332,34 +3392,34 @@
     </row>
     <row r="173" ht="18.0" customHeight="1">
       <c r="A173" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" ht="18.0" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" ht="18.0" customHeight="1">
       <c r="A175" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="176" ht="18.0" customHeight="1">
       <c r="A176" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="177" ht="18.0" customHeight="1">
@@ -3367,7 +3427,7 @@
         <v>231</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
     </row>
     <row r="178" ht="18.0" customHeight="1">
@@ -3375,7 +3435,7 @@
         <v>232</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" ht="18.0" customHeight="1">
@@ -3391,7 +3451,7 @@
         <v>235</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" ht="18.0" customHeight="1">
@@ -3399,151 +3459,151 @@
         <v>236</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" ht="18.0" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" ht="18.0" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" ht="18.0" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" ht="18.0" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" ht="18.0" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" ht="18.0" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" ht="18.0" customHeight="1">
       <c r="A188" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" ht="18.0" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" ht="18.0" customHeight="1">
       <c r="A190" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" ht="18.0" customHeight="1">
       <c r="A191" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="192" ht="18.0" customHeight="1">
       <c r="A192" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" ht="18.0" customHeight="1">
       <c r="A193" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" ht="18.0" customHeight="1">
       <c r="A194" s="7" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" ht="18.0" customHeight="1">
       <c r="A195" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" ht="18.0" customHeight="1">
       <c r="A196" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" ht="18.0" customHeight="1">
       <c r="A197" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" ht="18.0" customHeight="1">
       <c r="A198" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
     </row>
     <row r="199" ht="18.0" customHeight="1">
       <c r="A199" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" ht="18.0" customHeight="1">
@@ -3551,15 +3611,15 @@
         <v>262</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
     </row>
     <row r="201" ht="18.0" customHeight="1">
       <c r="A201" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" ht="18.0" customHeight="1">
@@ -3567,7 +3627,7 @@
         <v>265</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" ht="18.0" customHeight="1">
@@ -3575,7 +3635,7 @@
         <v>266</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
     </row>
     <row r="204" ht="18.0" customHeight="1">
@@ -3591,7 +3651,7 @@
         <v>269</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" ht="18.0" customHeight="1">
@@ -3599,52 +3659,52 @@
         <v>270</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" ht="18.0" customHeight="1">
       <c r="A207" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" ht="18.0" customHeight="1">
       <c r="A208" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" ht="18.0" customHeight="1">
       <c r="A209" s="7" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" ht="18.0" customHeight="1">
       <c r="A210" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" ht="18.0" customHeight="1">
       <c r="A211" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" ht="18.0" customHeight="1">
       <c r="A212" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>278</v>
@@ -3652,127 +3712,127 @@
     </row>
     <row r="213" ht="18.0" customHeight="1">
       <c r="A213" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214" ht="18.0" customHeight="1">
       <c r="A214" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" ht="18.0" customHeight="1">
       <c r="A215" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216" ht="18.0" customHeight="1">
       <c r="A216" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" ht="18.0" customHeight="1">
       <c r="A217" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" ht="18.0" customHeight="1">
       <c r="A218" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B218" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="219" ht="18.0" customHeight="1">
       <c r="A219" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
     </row>
     <row r="220" ht="18.0" customHeight="1">
       <c r="A220" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" ht="18.0" customHeight="1">
       <c r="A221" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222" ht="18.0" customHeight="1">
       <c r="A222" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" ht="18.0" customHeight="1">
       <c r="A223" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" ht="18.0" customHeight="1">
       <c r="A224" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
     </row>
     <row r="225" ht="18.0" customHeight="1">
       <c r="A225" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" ht="18.0" customHeight="1">
       <c r="A226" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="227" ht="18.0" customHeight="1">
       <c r="A227" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" ht="18.0" customHeight="1">
       <c r="A228" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>298</v>
@@ -3780,50 +3840,50 @@
     </row>
     <row r="229" ht="18.0" customHeight="1">
       <c r="A229" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" ht="18.0" customHeight="1">
       <c r="A230" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" ht="18.0" customHeight="1">
       <c r="A231" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>82</v>
+        <v>291</v>
       </c>
     </row>
     <row r="232" ht="18.0" customHeight="1">
       <c r="A232" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>82</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" ht="18.0" customHeight="1">
       <c r="A233" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>304</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234" ht="18.0" customHeight="1">
       <c r="A234" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>306</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" ht="18.0" customHeight="1">
@@ -3831,111 +3891,111 @@
         <v>307</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>308</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236" ht="18.0" customHeight="1">
       <c r="A236" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>310</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237" ht="18.0" customHeight="1">
       <c r="A237" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238" ht="18.0" customHeight="1">
       <c r="A238" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="239" ht="18.0" customHeight="1">
       <c r="A239" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" ht="18.0" customHeight="1">
       <c r="A240" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>316</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241" ht="18.0" customHeight="1">
       <c r="A241" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" ht="18.0" customHeight="1">
       <c r="A242" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" ht="18.0" customHeight="1">
       <c r="A243" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>70</v>
+        <v>318</v>
       </c>
     </row>
     <row r="244" ht="18.0" customHeight="1">
       <c r="A244" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" ht="18.0" customHeight="1">
       <c r="A245" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
     </row>
     <row r="246" ht="18.0" customHeight="1">
       <c r="A246" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="247" ht="18.0" customHeight="1">
       <c r="A247" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="248" ht="18.0" customHeight="1">
       <c r="A248" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B248" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="249" ht="18.0" customHeight="1">
@@ -3943,415 +4003,415 @@
         <v>325</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
     </row>
     <row r="250" ht="18.0" customHeight="1">
       <c r="A250" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" ht="18.0" customHeight="1">
       <c r="A251" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="252" ht="18.0" customHeight="1">
       <c r="A252" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" ht="18.0" customHeight="1">
       <c r="A253" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" ht="18.0" customHeight="1">
       <c r="A254" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
     </row>
     <row r="255" ht="18.0" customHeight="1">
       <c r="A255" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
     </row>
     <row r="256" ht="18.0" customHeight="1">
       <c r="A256" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
     </row>
     <row r="257" ht="18.0" customHeight="1">
       <c r="A257" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>70</v>
+        <v>338</v>
       </c>
     </row>
     <row r="258" ht="18.0" customHeight="1">
       <c r="A258" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" ht="18.0" customHeight="1">
       <c r="A259" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" ht="18.0" customHeight="1">
       <c r="A260" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" ht="18.0" customHeight="1">
       <c r="A261" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262" ht="18.0" customHeight="1">
       <c r="A262" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" ht="18.0" customHeight="1">
       <c r="A263" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" ht="18.0" customHeight="1">
       <c r="A264" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" ht="18.0" customHeight="1">
       <c r="A265" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>342</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" ht="18.0" customHeight="1">
       <c r="A266" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267" ht="18.0" customHeight="1">
       <c r="A267" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>82</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" ht="18.0" customHeight="1">
       <c r="A268" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="269" ht="18.0" customHeight="1">
-      <c r="A269" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>349</v>
+      <c r="A269" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="270" ht="18.0" customHeight="1">
-      <c r="A270" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>349</v>
+      <c r="A270" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="271" ht="18.0" customHeight="1">
       <c r="A271" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>352</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272" ht="18.0" customHeight="1">
-      <c r="A272" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B272" s="11" t="s">
+      <c r="A272" s="7" t="s">
         <v>354</v>
       </c>
+      <c r="B272" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="273" ht="18.0" customHeight="1">
-      <c r="A273" s="11" t="s">
+      <c r="A273" s="7" t="s">
         <v>355</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>356</v>
+        <v>102</v>
       </c>
     </row>
     <row r="274" ht="18.0" customHeight="1">
       <c r="A274" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>358</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275" ht="18.0" customHeight="1">
       <c r="A275" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" ht="18.0" customHeight="1">
       <c r="A276" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" ht="18.0" customHeight="1">
       <c r="A277" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>363</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278" ht="18.0" customHeight="1">
       <c r="A278" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>365</v>
+        <v>102</v>
       </c>
     </row>
     <row r="279" ht="18.0" customHeight="1">
       <c r="A279" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="280" ht="18.0" customHeight="1">
+      <c r="A280" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="281" ht="18.0" customHeight="1">
+      <c r="A281" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="282" ht="18.0" customHeight="1">
+      <c r="A282" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="283" ht="18.0" customHeight="1">
+      <c r="A283" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B279" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="280" ht="18.0" customHeight="1">
-      <c r="A280" s="11" t="s">
+      <c r="B283" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="281" ht="18.0" customHeight="1">
-      <c r="A281" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="282" ht="18.0" customHeight="1">
-      <c r="A282" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="283" ht="18.0" customHeight="1">
-      <c r="A283" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="284" ht="18.0" customHeight="1">
       <c r="A284" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B284" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="285" ht="18.0" customHeight="1">
       <c r="A285" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B285" s="7" t="s">
         <v>370</v>
       </c>
+      <c r="B285" s="11" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="286" ht="18.0" customHeight="1">
-      <c r="A286" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>375</v>
+      <c r="A286" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="287" ht="18.0" customHeight="1">
       <c r="A287" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="288" ht="18.0" customHeight="1">
       <c r="A288" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="289" ht="18.0" customHeight="1">
+      <c r="A289" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B289" s="7" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="289" ht="18.0" customHeight="1">
-      <c r="A289" s="11" t="s">
+    <row r="290" ht="18.0" customHeight="1">
+      <c r="A290" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B289" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="290" ht="18.0" customHeight="1">
-      <c r="A290" s="11" t="s">
+      <c r="B290" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B290" s="11" t="s">
+    </row>
+    <row r="291" ht="18.0" customHeight="1">
+      <c r="A291" s="7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="291" ht="18.0" customHeight="1">
-      <c r="A291" s="11" t="s">
+      <c r="B291" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="292" ht="18.0" customHeight="1">
+      <c r="A292" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B291" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="292" ht="18.0" customHeight="1">
-      <c r="A292" s="11" t="s">
+      <c r="B292" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B292" s="11" t="s">
-        <v>381</v>
-      </c>
     </row>
     <row r="293" ht="18.0" customHeight="1">
-      <c r="A293" s="11" t="s">
+      <c r="A293" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B293" s="11" t="s">
-        <v>381</v>
+      <c r="B293" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="294" ht="18.0" customHeight="1">
-      <c r="A294" s="11" t="s">
+      <c r="A294" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B294" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="B294" s="11" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="295" ht="18.0" customHeight="1">
       <c r="A295" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>381</v>
+        <v>387</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="296" ht="18.0" customHeight="1">
       <c r="A296" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B296" s="11" t="s">
-        <v>381</v>
+        <v>388</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="297" ht="18.0" customHeight="1">
       <c r="A297" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B297" s="11" t="s">
         <v>389</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="298" ht="18.0" customHeight="1">
       <c r="A298" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B298" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B298" s="7" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="299" ht="18.0" customHeight="1">
       <c r="A299" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B299" s="11" t="s">
         <v>392</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="300" ht="18.0" customHeight="1">
       <c r="A300" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B300" s="11" t="s">
-        <v>392</v>
+      <c r="B300" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="301" ht="18.0" customHeight="1">
@@ -4359,15 +4419,15 @@
         <v>394</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="302" ht="18.0" customHeight="1">
       <c r="A302" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B302" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="303" ht="18.0" customHeight="1">
@@ -4375,15 +4435,15 @@
         <v>397</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="304" ht="18.0" customHeight="1">
       <c r="A304" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B304" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="B304" s="11" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="305" ht="18.0" customHeight="1">
@@ -4391,23 +4451,23 @@
         <v>400</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" ht="18.0" customHeight="1">
       <c r="A306" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B306" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="307" ht="18.0" customHeight="1">
       <c r="A307" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" ht="18.0" customHeight="1">
@@ -4415,7 +4475,7 @@
         <v>404</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="309" ht="18.0" customHeight="1">
@@ -4423,7 +4483,7 @@
         <v>405</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="310" ht="18.0" customHeight="1">
@@ -4431,71 +4491,71 @@
         <v>406</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="311" ht="18.0" customHeight="1">
       <c r="A311" s="11" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312" ht="18.0" customHeight="1">
       <c r="A312" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="313" ht="18.0" customHeight="1">
       <c r="A313" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="314" ht="18.0" customHeight="1">
       <c r="A314" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="315" ht="18.0" customHeight="1">
       <c r="A315" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="316" ht="18.0" customHeight="1">
       <c r="A316" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B316" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="B316" s="11" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="317" ht="18.0" customHeight="1">
       <c r="A317" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" ht="18.0" customHeight="1">
       <c r="A318" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B318" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="B318" s="11" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="319" ht="18.0" customHeight="1">
@@ -4508,674 +4568,674 @@
     </row>
     <row r="320" ht="18.0" customHeight="1">
       <c r="A320" s="11" t="s">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>17</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" ht="18.0" customHeight="1">
       <c r="A321" s="11" t="s">
-        <v>15</v>
+        <v>421</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>17</v>
+        <v>419</v>
       </c>
     </row>
     <row r="322" ht="18.0" customHeight="1">
       <c r="A322" s="11" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>17</v>
+        <v>423</v>
       </c>
     </row>
     <row r="323" ht="18.0" customHeight="1">
       <c r="A323" s="11" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="324" ht="18.0" customHeight="1">
       <c r="A324" s="11" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="325" ht="18.0" customHeight="1">
       <c r="A325" s="11" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" ht="18.0" customHeight="1">
       <c r="A326" s="11" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="327" ht="18.0" customHeight="1">
       <c r="A327" s="11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="328" ht="18.0" customHeight="1">
       <c r="A328" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="329" ht="18.0" customHeight="1">
       <c r="A329" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="330" ht="18.0" customHeight="1">
       <c r="A330" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="331" ht="18.0" customHeight="1">
       <c r="A331" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="332" ht="18.0" customHeight="1">
       <c r="A332" s="11" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="333" ht="18.0" customHeight="1">
       <c r="A333" s="11" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="334" ht="18.0" customHeight="1">
       <c r="A334" s="11" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="335" ht="18.0" customHeight="1">
       <c r="A335" s="11" t="s">
-        <v>431</v>
+        <v>18</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" ht="18.0" customHeight="1">
       <c r="A336" s="11" t="s">
-        <v>432</v>
+        <v>15</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" ht="18.0" customHeight="1">
       <c r="A337" s="11" t="s">
-        <v>433</v>
+        <v>12</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" ht="18.0" customHeight="1">
       <c r="A338" s="11" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="339" ht="18.0" customHeight="1">
       <c r="A339" s="11" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="340" ht="18.0" customHeight="1">
       <c r="A340" s="11" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="341" ht="18.0" customHeight="1">
       <c r="A341" s="11" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" ht="18.0" customHeight="1">
       <c r="A342" s="11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="343" ht="18.0" customHeight="1">
       <c r="A343" s="11" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="344" ht="18.0" customHeight="1">
       <c r="A344" s="11" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="345" ht="18.0" customHeight="1">
       <c r="A345" s="11" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="346" ht="18.0" customHeight="1">
       <c r="A346" s="11" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="347" ht="18.0" customHeight="1">
       <c r="A347" s="11" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="348" ht="18.0" customHeight="1">
       <c r="A348" s="11" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="349" ht="18.0" customHeight="1">
       <c r="A349" s="11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="350" ht="18.0" customHeight="1">
       <c r="A350" s="11" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="351" ht="18.0" customHeight="1">
       <c r="A351" s="11" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="352" ht="18.0" customHeight="1">
       <c r="A352" s="11" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="353" ht="18.0" customHeight="1">
       <c r="A353" s="11" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="354" ht="18.0" customHeight="1">
       <c r="A354" s="11" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="355" ht="18.0" customHeight="1">
       <c r="A355" s="11" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="356" ht="18.0" customHeight="1">
       <c r="A356" s="11" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="357" ht="18.0" customHeight="1">
       <c r="A357" s="11" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="358" ht="18.0" customHeight="1">
       <c r="A358" s="11" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="359" ht="18.0" customHeight="1">
       <c r="A359" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="360" ht="18.0" customHeight="1">
       <c r="A360" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="361" ht="18.0" customHeight="1">
       <c r="A361" s="11" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="362" ht="18.0" customHeight="1">
       <c r="A362" s="11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="363" ht="18.0" customHeight="1">
       <c r="A363" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="364" ht="18.0" customHeight="1">
       <c r="A364" s="11" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="365" ht="18.0" customHeight="1">
       <c r="A365" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="366" ht="18.0" customHeight="1">
       <c r="A366" s="11" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="367" ht="18.0" customHeight="1">
       <c r="A367" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="368" ht="18.0" customHeight="1">
       <c r="A368" s="11" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="369" ht="18.0" customHeight="1">
       <c r="A369" s="11" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="370" ht="18.0" customHeight="1">
       <c r="A370" s="11" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="371" ht="18.0" customHeight="1">
       <c r="A371" s="11" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="372" ht="18.0" customHeight="1">
       <c r="A372" s="11" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="373" ht="18.0" customHeight="1">
       <c r="A373" s="11" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="374" ht="18.0" customHeight="1">
       <c r="A374" s="11" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="375" ht="18.0" customHeight="1">
       <c r="A375" s="11" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="376" ht="18.0" customHeight="1">
       <c r="A376" s="11" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="377" ht="18.0" customHeight="1">
       <c r="A377" s="11" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="378" ht="18.0" customHeight="1">
       <c r="A378" s="11" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="379" ht="18.0" customHeight="1">
       <c r="A379" s="11" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="380" ht="18.0" customHeight="1">
       <c r="A380" s="11" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="381" ht="18.0" customHeight="1">
       <c r="A381" s="11" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="382" ht="18.0" customHeight="1">
       <c r="A382" s="11" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="383" ht="18.0" customHeight="1">
       <c r="A383" s="11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="384" ht="18.0" customHeight="1">
       <c r="A384" s="11" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="385" ht="18.0" customHeight="1">
       <c r="A385" s="11" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="386" ht="18.0" customHeight="1">
       <c r="A386" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="387" ht="18.0" customHeight="1">
       <c r="A387" s="11" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="388" ht="18.0" customHeight="1">
       <c r="A388" s="11" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B388" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="389" ht="18.0" customHeight="1">
       <c r="A389" s="11" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="390" ht="18.0" customHeight="1">
       <c r="A390" s="11" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="391" ht="18.0" customHeight="1">
       <c r="A391" s="11" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="392" ht="18.0" customHeight="1">
       <c r="A392" s="11" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B392" s="11" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="393" ht="18.0" customHeight="1">
       <c r="A393" s="11" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="394" ht="18.0" customHeight="1">
       <c r="A394" s="11" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="395" ht="18.0" customHeight="1">
       <c r="A395" s="11" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="396" ht="18.0" customHeight="1">
       <c r="A396" s="11" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B396" s="11" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="397" ht="18.0" customHeight="1">
       <c r="A397" s="11" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" ht="18.0" customHeight="1">
       <c r="A398" s="11" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B398" s="11" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="399" ht="18.0" customHeight="1">
       <c r="A399" s="11" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="400" ht="18.0" customHeight="1">
       <c r="A400" s="11" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B400" s="11" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
     </row>
     <row r="401" ht="18.0" customHeight="1">
       <c r="A401" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B401" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="B401" s="11" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="402" ht="18.0" customHeight="1">
       <c r="A402" s="11" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
     </row>
     <row r="403" ht="18.0" customHeight="1">
       <c r="A403" s="11" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
     </row>
     <row r="404" ht="18.0" customHeight="1">
@@ -5183,68 +5243,68 @@
         <v>496</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
     </row>
     <row r="405" ht="18.0" customHeight="1">
       <c r="A405" s="11" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
     </row>
     <row r="406" ht="18.0" customHeight="1">
       <c r="A406" s="11" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
     </row>
     <row r="407" ht="18.0" customHeight="1">
       <c r="A407" s="11" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="408" ht="18.0" customHeight="1">
       <c r="A408" s="11" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B408" s="11" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="409" ht="18.0" customHeight="1">
       <c r="A409" s="11" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B409" s="11" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="410" ht="18.0" customHeight="1">
       <c r="A410" s="11" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B410" s="11" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" ht="18.0" customHeight="1">
       <c r="A411" s="11" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B411" s="11" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" ht="18.0" customHeight="1">
       <c r="A412" s="11" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B412" s="11" t="s">
         <v>505</v>
@@ -5252,210 +5312,270 @@
     </row>
     <row r="413" ht="18.0" customHeight="1">
       <c r="A413" s="11" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="414" ht="18.0" customHeight="1">
       <c r="A414" s="11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="415" ht="18.0" customHeight="1">
       <c r="A415" s="11" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
     </row>
     <row r="416" ht="18.0" customHeight="1">
       <c r="A416" s="11" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B416" s="11" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
     </row>
     <row r="417" ht="18.0" customHeight="1">
       <c r="A417" s="11" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="418" ht="18.0" customHeight="1">
       <c r="A418" s="11" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="419" ht="18.0" customHeight="1">
       <c r="A419" s="11" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="420" ht="18.0" customHeight="1">
       <c r="A420" s="11" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="421" ht="18.0" customHeight="1">
       <c r="A421" s="11" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="422" ht="18.0" customHeight="1">
       <c r="A422" s="11" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="423" ht="18.0" customHeight="1">
       <c r="A423" s="11" t="s">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="424" ht="18.0" customHeight="1">
       <c r="A424" s="11" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="425" ht="18.0" customHeight="1">
       <c r="A425" s="11" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="426" ht="18.0" customHeight="1">
       <c r="A426" s="11" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="427" ht="18.0" customHeight="1">
       <c r="A427" s="11" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>420</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" ht="18.0" customHeight="1">
       <c r="A428" s="11" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="429" ht="18.0" customHeight="1">
       <c r="A429" s="11" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>420</v>
+        <v>505</v>
       </c>
     </row>
     <row r="430" ht="18.0" customHeight="1">
       <c r="A430" s="11" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B430" s="11" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="431" ht="18.0" customHeight="1">
-      <c r="A431" s="11"/>
+      <c r="A431" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B431" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="432" ht="18.0" customHeight="1">
-      <c r="A432" s="11"/>
-      <c r="B432" s="11"/>
+      <c r="A432" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B432" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="433" ht="18.0" customHeight="1">
-      <c r="A433" s="11"/>
-      <c r="B433" s="11"/>
+      <c r="A433" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B433" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="434" ht="18.0" customHeight="1">
-      <c r="A434" s="11"/>
-      <c r="B434" s="11"/>
+      <c r="A434" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B434" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="435" ht="18.0" customHeight="1">
-      <c r="A435" s="11"/>
-      <c r="B435" s="11"/>
+      <c r="A435" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B435" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="436" ht="18.0" customHeight="1">
-      <c r="A436" s="11"/>
-      <c r="B436" s="11"/>
+      <c r="A436" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B436" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="437" ht="18.0" customHeight="1">
-      <c r="A437" s="11"/>
-      <c r="B437" s="11"/>
+      <c r="A437" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B437" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="438" ht="18.0" customHeight="1">
-      <c r="A438" s="11"/>
-      <c r="B438" s="11"/>
+      <c r="A438" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B438" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="439" ht="18.0" customHeight="1">
-      <c r="A439" s="11"/>
-      <c r="B439" s="11"/>
+      <c r="A439" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B439" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="440" ht="18.0" customHeight="1">
-      <c r="A440" s="11"/>
-      <c r="B440" s="11"/>
+      <c r="A440" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B440" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="441" ht="18.0" customHeight="1">
-      <c r="A441" s="11"/>
-      <c r="B441" s="11"/>
+      <c r="A441" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B441" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="442" ht="18.0" customHeight="1">
-      <c r="A442" s="11"/>
-      <c r="B442" s="11"/>
+      <c r="A442" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B442" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="443" ht="18.0" customHeight="1">
-      <c r="A443" s="11"/>
-      <c r="B443" s="11"/>
+      <c r="A443" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B443" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="444" ht="18.0" customHeight="1">
-      <c r="A444" s="11"/>
-      <c r="B444" s="11"/>
+      <c r="A444" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B444" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="445" ht="18.0" customHeight="1">
-      <c r="A445" s="11"/>
-      <c r="B445" s="11"/>
+      <c r="A445" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="446" ht="18.0" customHeight="1">
       <c r="A446" s="11"/>
-      <c r="B446" s="11"/>
     </row>
     <row r="447" ht="18.0" customHeight="1">
       <c r="A447" s="11"/>
@@ -6194,68 +6314,68 @@
       <c r="B630" s="11"/>
     </row>
     <row r="631" ht="18.0" customHeight="1">
-      <c r="A631" s="12"/>
+      <c r="A631" s="11"/>
       <c r="B631" s="11"/>
     </row>
     <row r="632" ht="18.0" customHeight="1">
-      <c r="A632" s="12"/>
-      <c r="B632" s="12"/>
+      <c r="A632" s="11"/>
+      <c r="B632" s="11"/>
     </row>
     <row r="633" ht="18.0" customHeight="1">
-      <c r="A633" s="12"/>
-      <c r="B633" s="12"/>
+      <c r="A633" s="11"/>
+      <c r="B633" s="11"/>
     </row>
     <row r="634" ht="18.0" customHeight="1">
-      <c r="A634" s="12"/>
-      <c r="B634" s="12"/>
+      <c r="A634" s="11"/>
+      <c r="B634" s="11"/>
     </row>
     <row r="635" ht="18.0" customHeight="1">
-      <c r="A635" s="12"/>
-      <c r="B635" s="12"/>
+      <c r="A635" s="11"/>
+      <c r="B635" s="11"/>
     </row>
     <row r="636" ht="18.0" customHeight="1">
-      <c r="A636" s="12"/>
-      <c r="B636" s="12"/>
+      <c r="A636" s="11"/>
+      <c r="B636" s="11"/>
     </row>
     <row r="637" ht="18.0" customHeight="1">
-      <c r="A637" s="12"/>
-      <c r="B637" s="12"/>
+      <c r="A637" s="11"/>
+      <c r="B637" s="11"/>
     </row>
     <row r="638" ht="18.0" customHeight="1">
-      <c r="A638" s="12"/>
-      <c r="B638" s="12"/>
+      <c r="A638" s="11"/>
+      <c r="B638" s="11"/>
     </row>
     <row r="639" ht="18.0" customHeight="1">
-      <c r="A639" s="12"/>
-      <c r="B639" s="12"/>
+      <c r="A639" s="11"/>
+      <c r="B639" s="11"/>
     </row>
     <row r="640" ht="18.0" customHeight="1">
-      <c r="A640" s="12"/>
-      <c r="B640" s="12"/>
+      <c r="A640" s="11"/>
+      <c r="B640" s="11"/>
     </row>
     <row r="641" ht="18.0" customHeight="1">
-      <c r="A641" s="12"/>
-      <c r="B641" s="12"/>
+      <c r="A641" s="11"/>
+      <c r="B641" s="11"/>
     </row>
     <row r="642" ht="18.0" customHeight="1">
-      <c r="A642" s="12"/>
-      <c r="B642" s="12"/>
+      <c r="A642" s="11"/>
+      <c r="B642" s="11"/>
     </row>
     <row r="643" ht="18.0" customHeight="1">
-      <c r="A643" s="12"/>
-      <c r="B643" s="12"/>
+      <c r="A643" s="11"/>
+      <c r="B643" s="11"/>
     </row>
     <row r="644" ht="18.0" customHeight="1">
-      <c r="A644" s="12"/>
-      <c r="B644" s="12"/>
+      <c r="A644" s="11"/>
+      <c r="B644" s="11"/>
     </row>
     <row r="645" ht="18.0" customHeight="1">
-      <c r="A645" s="12"/>
-      <c r="B645" s="12"/>
+      <c r="A645" s="11"/>
+      <c r="B645" s="11"/>
     </row>
     <row r="646" ht="18.0" customHeight="1">
       <c r="A646" s="12"/>
-      <c r="B646" s="12"/>
+      <c r="B646" s="11"/>
     </row>
     <row r="647" ht="18.0" customHeight="1">
       <c r="A647" s="12"/>
@@ -7882,11 +8002,71 @@
       <c r="B1052" s="12"/>
     </row>
     <row r="1053" ht="18.0" customHeight="1">
+      <c r="A1053" s="12"/>
       <c r="B1053" s="12"/>
     </row>
-    <row r="1054" ht="18.0" customHeight="1"/>
-    <row r="1055" ht="18.0" customHeight="1"/>
-    <row r="1056" ht="18.0" customHeight="1"/>
+    <row r="1054" ht="18.0" customHeight="1">
+      <c r="A1054" s="12"/>
+      <c r="B1054" s="12"/>
+    </row>
+    <row r="1055" ht="18.0" customHeight="1">
+      <c r="A1055" s="12"/>
+      <c r="B1055" s="12"/>
+    </row>
+    <row r="1056" ht="18.0" customHeight="1">
+      <c r="A1056" s="12"/>
+      <c r="B1056" s="12"/>
+    </row>
+    <row r="1057" ht="18.0" customHeight="1">
+      <c r="A1057" s="12"/>
+      <c r="B1057" s="12"/>
+    </row>
+    <row r="1058" ht="18.0" customHeight="1">
+      <c r="A1058" s="12"/>
+      <c r="B1058" s="12"/>
+    </row>
+    <row r="1059" ht="18.0" customHeight="1">
+      <c r="A1059" s="12"/>
+      <c r="B1059" s="12"/>
+    </row>
+    <row r="1060" ht="18.0" customHeight="1">
+      <c r="A1060" s="12"/>
+      <c r="B1060" s="12"/>
+    </row>
+    <row r="1061" ht="18.0" customHeight="1">
+      <c r="A1061" s="12"/>
+      <c r="B1061" s="12"/>
+    </row>
+    <row r="1062" ht="18.0" customHeight="1">
+      <c r="A1062" s="12"/>
+      <c r="B1062" s="12"/>
+    </row>
+    <row r="1063" ht="18.0" customHeight="1">
+      <c r="A1063" s="12"/>
+      <c r="B1063" s="12"/>
+    </row>
+    <row r="1064" ht="18.0" customHeight="1">
+      <c r="A1064" s="12"/>
+      <c r="B1064" s="12"/>
+    </row>
+    <row r="1065" ht="18.0" customHeight="1">
+      <c r="A1065" s="12"/>
+      <c r="B1065" s="12"/>
+    </row>
+    <row r="1066" ht="18.0" customHeight="1">
+      <c r="A1066" s="12"/>
+      <c r="B1066" s="12"/>
+    </row>
+    <row r="1067" ht="18.0" customHeight="1">
+      <c r="A1067" s="12"/>
+      <c r="B1067" s="12"/>
+    </row>
+    <row r="1068" ht="18.0" customHeight="1">
+      <c r="B1068" s="12"/>
+    </row>
+    <row r="1069" ht="18.0" customHeight="1"/>
+    <row r="1070" ht="18.0" customHeight="1"/>
+    <row r="1071" ht="18.0" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
